--- a/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/Matriz de Trazabilidad.xlsx
+++ b/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/Matriz de Trazabilidad.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>RF01</t>
   </si>
@@ -122,15 +122,6 @@
   </si>
   <si>
     <t>RF23</t>
-  </si>
-  <si>
-    <t>RF24</t>
-  </si>
-  <si>
-    <t>RF25</t>
-  </si>
-  <si>
-    <t>RF26</t>
   </si>
   <si>
     <t>CU02 - Asignar Caso de Uso</t>
@@ -544,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD19" sqref="AD19"/>
+      <selection pane="topRight" activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +550,7 @@
     <col min="8" max="27" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,212 +620,203 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/Matriz de Trazabilidad.xlsx
+++ b/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/Matriz de Trazabilidad.xlsx
@@ -18,42 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-RF01 dice "y el aprobado"</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>RF01</t>
   </si>
@@ -124,77 +90,62 @@
     <t>RF23</t>
   </si>
   <si>
-    <t>CU02 - Asignar Caso de Uso</t>
-  </si>
-  <si>
-    <t>CU03 - Adjuntar Documentos</t>
-  </si>
-  <si>
-    <t>CU04 - Comentar Caso de Uso</t>
-  </si>
-  <si>
-    <t>CU06 - Consultar Casos de Uso</t>
-  </si>
-  <si>
-    <t>CU07 - Actualizar Resultados de Pasos a Seguir</t>
-  </si>
-  <si>
     <t>CU08 - CRUD Proyectos</t>
   </si>
   <si>
-    <t>CU09 - Configurar Tasa Mínima de Aprobación</t>
-  </si>
-  <si>
-    <t>CU10 - Consultar Proyectos</t>
-  </si>
-  <si>
     <t>CU11 - CRUD Hito</t>
   </si>
   <si>
-    <t>CU12 - Consultar Hitos</t>
-  </si>
-  <si>
-    <t>CU13 - CRUD Permisos</t>
-  </si>
-  <si>
     <t>CU14 - CRUD Roles</t>
   </si>
   <si>
-    <t>CU15 - Consultar Roles</t>
-  </si>
-  <si>
-    <t>CU16 - CRUD Usuarios</t>
-  </si>
-  <si>
-    <t>CU17 - Asignar Rol</t>
-  </si>
-  <si>
-    <t>CU18 - Gestionar Rol Asignado</t>
-  </si>
-  <si>
-    <t>CU19 - Consultar Usuarios</t>
-  </si>
-  <si>
-    <t>CU20 - Asignar Permisos</t>
-  </si>
-  <si>
-    <t>CU21 - Gestionar Permiso Asignado</t>
-  </si>
-  <si>
     <t>CU01 - CRUD Casos de Uso</t>
   </si>
   <si>
-    <t>CU05 - Exportar Casos de Uso y Resultados</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>CU02 - Consultar Casos de Uso</t>
+  </si>
+  <si>
+    <t>CU03 - Asignar Caso de Uso</t>
+  </si>
+  <si>
+    <t>CU04 - Adjuntar Documentos</t>
+  </si>
+  <si>
+    <t>CU05 - Comentar Caso de Uso</t>
+  </si>
+  <si>
+    <t>CU06 - Exportar Casos de Uso y Resultados</t>
+  </si>
+  <si>
+    <t>CU07 - Actualizar Pasos a Seguir</t>
+  </si>
+  <si>
+    <t>CU09 - Consultar Proyectos</t>
+  </si>
+  <si>
+    <t>CU10 - Consultar Proyectos Asignados</t>
+  </si>
+  <si>
+    <t>CU12 - CRUD Permisos</t>
+  </si>
+  <si>
+    <t>CU13 - Consultar Hitos</t>
+  </si>
+  <si>
+    <t>CU15 - CRUD Usuarios</t>
+  </si>
+  <si>
+    <t>CU16 - Gestionar Rol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,35 +161,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,15 +178,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,294 +488,618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD16" sqref="AD16"/>
+      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" t="s">
-        <v>44</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>